--- a/scenario_parameters.xlsx
+++ b/scenario_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myylee/Desktop/benchmark_sc_multiomic_integration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A8A136-53D3-FC4D-A05E-8B404DFD9905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9688B2-5589-2140-A5B7-099E377A6618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27620" yWindow="780" windowWidth="34560" windowHeight="20120" xr2:uid="{23DF92AA-226D-0E43-9861-33F8697EDCF0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" xr2:uid="{23DF92AA-226D-0E43-9861-33F8697EDCF0}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_parameters" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="82">
   <si>
     <t xml:space="preserve">PBMC vary cells </t>
   </si>
@@ -267,6 +267,21 @@
   </si>
   <si>
     <t>["noMiss_nmulti","multiMissHS_nmulti","rnaOnlyHS_nmulti","atacOnlyHS_nmulti","multiMissEndo_nmulti","rnaOnlyEndo_nmulti","atacOnlyEndo_nmulti"]</t>
+  </si>
+  <si>
+    <t>HPAP integration</t>
+  </si>
+  <si>
+    <t>run_metric_eval_batch2_hpap.py</t>
+  </si>
+  <si>
+    <t>dataset/hpap/hpap_all_bc_ct3.csv</t>
+  </si>
+  <si>
+    <t>dataset/hpap/real_data/</t>
+  </si>
+  <si>
+    <t>[70000]</t>
   </si>
 </sst>
 </file>
@@ -624,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC716AD5-E0D6-944D-840A-52B885299C66}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1286,6 +1301,44 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
